--- a/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.298525</v>
+        <v>9.314090999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.137124999999999</v>
+        <v>8.685551999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>9.253373</v>
+        <v>8.633141</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1614</v>
+        <v>0.628539</v>
       </c>
       <c r="H2" t="n">
-        <v>1.045152</v>
+        <v>0.6809499999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE721A01047</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>Shriram Finance Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.685551999999999</v>
+        <v>8.767367999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.633141</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.216153</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05241099999999932</v>
+        <v>8.767367999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5306010000000008</v>
+        <v>8.767367999999999</v>
       </c>
     </row>
     <row r="4">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>8.001052</v>
+      </c>
+      <c r="E4" t="n">
         <v>7.774914</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.436206</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.748983000000001</v>
-      </c>
       <c r="G4" t="n">
-        <v>-0.6612920000000004</v>
+        <v>0.2261379999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.974069000000001</v>
+        <v>-0.4351540000000007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE463V01026</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anand Rathi Wealth Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.22842</v>
+        <v>7.336848</v>
       </c>
       <c r="E5" t="n">
-        <v>7.074929</v>
+        <v>0.471945</v>
       </c>
       <c r="F5" t="n">
-        <v>8.099463</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1534909999999998</v>
+        <v>6.864903</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8710430000000002</v>
+        <v>7.336848</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>6.249933</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.340376</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.80419</v>
       </c>
-      <c r="F6" t="n">
-        <v>7.576282</v>
-      </c>
       <c r="G6" t="n">
-        <v>-0.4638140000000002</v>
+        <v>-0.09044299999999961</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.235906</v>
+        <v>-0.5542569999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.086461</v>
+        <v>5.747081</v>
       </c>
       <c r="E7" t="n">
-        <v>5.106652</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.459195</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9798089999999995</v>
+        <v>5.747081</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6272659999999997</v>
+        <v>5.747081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE346A01027</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICICI Prudential AMC Ltd</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.448358</v>
+        <v>5.264682</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.416392</v>
       </c>
       <c r="G8" t="n">
-        <v>4.448358</v>
+        <v>5.264682</v>
       </c>
       <c r="H8" t="n">
-        <v>4.448358</v>
+        <v>1.84829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE346A01027</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>ICICI Prudential AMC Ltd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.749559</v>
+        <v>5.021502</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.448358</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.749559</v>
+        <v>0.5731440000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>3.749559</v>
+        <v>5.021502</v>
       </c>
     </row>
     <row r="10">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>4.974659</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.728754</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.728754</v>
+        <v>1.245905</v>
       </c>
       <c r="H10" t="n">
-        <v>3.728754</v>
+        <v>4.974659</v>
       </c>
     </row>
     <row r="11">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>4.448754</v>
+      </c>
+      <c r="E11" t="n">
         <v>3.723976</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.840253</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.912382</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.8837229999999998</v>
+        <v>0.7247780000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8115939999999999</v>
+        <v>1.608501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.139423</v>
+        <v>3.418112</v>
       </c>
       <c r="E12" t="n">
-        <v>3.195126</v>
+        <v>3.749559</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05570300000000028</v>
+        <v>-0.3314470000000003</v>
       </c>
       <c r="H12" t="n">
-        <v>3.139423</v>
+        <v>3.418112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE726G01019</t>
+          <t>INE298J01013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ICICI Prudential Life Insurance Co Ltd</t>
+          <t>Nippon Life India Asset Management Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.836314</v>
+        <v>2.141619</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -853,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.836314</v>
+        <v>2.141619</v>
       </c>
       <c r="H13" t="n">
-        <v>2.836314</v>
+        <v>2.141619</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE918I01026</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bajaj Finserv Ltd.</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.978361</v>
+        <v>0.489655</v>
       </c>
       <c r="E14" t="n">
-        <v>2.141484</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.028731</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1631230000000001</v>
+        <v>0.489655</v>
       </c>
       <c r="H14" t="n">
-        <v>0.94963</v>
+        <v>0.489655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE040A01034</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.471945</v>
+        <v>0.039149</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.836314</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.471945</v>
+        <v>-2.797165</v>
       </c>
       <c r="H15" t="n">
-        <v>0.471945</v>
+        <v>0.039149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.416392</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.67717</v>
+        <v>1.551008</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.416392</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.67717</v>
+        <v>-1.551008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE123W01016</t>
+          <t>INE463V01026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SBI Life Insurance Company Limited</t>
+          <t>Anand Rathi Wealth Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.22842</v>
       </c>
       <c r="F17" t="n">
-        <v>2.959871</v>
+        <v>7.074929</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.22842</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.959871</v>
+        <v>-7.074929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>8.064005</v>
+        <v>3.139423</v>
       </c>
       <c r="F18" t="n">
-        <v>8.637841999999999</v>
+        <v>3.195126</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.064005</v>
+        <v>-3.139423</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.637841999999999</v>
+        <v>-3.195126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6.086461</v>
       </c>
       <c r="F19" t="n">
-        <v>9.771674000000001</v>
+        <v>5.106652</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-6.086461</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.771674000000001</v>
+        <v>-5.106652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,16 +1071,80 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.551008</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.064005</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.551008</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.064005</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE01TY01017</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.298525</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.137124999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-10.298525</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-9.137124999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INE918I01026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bajaj Finserv Ltd.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.978361</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.141484</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.978361</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.141484</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.314090999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.685551999999999</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.633141</v>
-      </c>
       <c r="G2" t="n">
+        <v>9.216153</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.628539</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.6809499999999993</v>
+      <c r="I2" t="n">
+        <v>0.09793799999999919</v>
       </c>
     </row>
     <row r="3">
@@ -523,21 +533,26 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.767367999999999</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.767367999999999</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>8.767367999999999</v>
       </c>
+      <c r="I3" t="n">
+        <v>8.767367999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -555,20 +570,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.001052</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.774914</v>
       </c>
-      <c r="F4" t="n">
-        <v>8.436206</v>
-      </c>
       <c r="G4" t="n">
+        <v>9.748983000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2261379999999997</v>
       </c>
-      <c r="H4" t="n">
-        <v>-0.4351540000000007</v>
+      <c r="I4" t="n">
+        <v>-1.747931000000001</v>
       </c>
     </row>
     <row r="5">
@@ -587,19 +607,24 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.336848</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.471945</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.864903</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>7.336848</v>
       </c>
     </row>
@@ -619,20 +644,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.249933</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.340376</v>
       </c>
-      <c r="F6" t="n">
-        <v>6.80419</v>
-      </c>
       <c r="G6" t="n">
+        <v>7.576282</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.09044299999999961</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.5542569999999998</v>
+      <c r="I6" t="n">
+        <v>-1.326349</v>
       </c>
     </row>
     <row r="7">
@@ -651,21 +681,26 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.747081</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.747081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>5.747081</v>
       </c>
+      <c r="I7" t="n">
+        <v>5.747081</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,20 +718,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.264682</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>3.416392</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>3.67717</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.264682</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.84829</v>
+      <c r="I8" t="n">
+        <v>1.587512</v>
       </c>
     </row>
     <row r="9">
@@ -715,19 +755,24 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5.021502</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.448358</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5731440000000001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>5.021502</v>
       </c>
     </row>
@@ -747,19 +792,24 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.974659</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.728754</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.245905</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>4.974659</v>
       </c>
     </row>
@@ -779,20 +829,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.448754</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.723976</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.840253</v>
-      </c>
       <c r="G11" t="n">
+        <v>2.912382</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.7247780000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.608501</v>
+      <c r="I11" t="n">
+        <v>1.536372</v>
       </c>
     </row>
     <row r="12">
@@ -811,19 +866,24 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>3.418112</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.749559</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.3314470000000003</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>3.418112</v>
       </c>
     </row>
@@ -843,21 +903,26 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.141619</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.141619</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2.141619</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.141619</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,21 +940,26 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>0.489655</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.489655</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0.489655</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.489655</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>0.039149</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.836314</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>-2.797165</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.039149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>SBI Cards &amp; Payment Services Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,20 +1014,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.551008</v>
+        <v>6.086461</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.459195</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.551008</v>
+        <v>-6.086461</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-5.459195</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7.22842</v>
       </c>
-      <c r="F17" t="n">
-        <v>7.074929</v>
-      </c>
       <c r="G17" t="n">
+        <v>8.099463</v>
+      </c>
+      <c r="H17" t="n">
         <v>-7.22842</v>
       </c>
-      <c r="H17" t="n">
-        <v>-7.074929</v>
+      <c r="I17" t="n">
+        <v>-8.099463</v>
       </c>
     </row>
     <row r="18">
@@ -1003,31 +1088,36 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3.139423</v>
       </c>
-      <c r="F18" t="n">
-        <v>3.195126</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>-3.139423</v>
       </c>
-      <c r="H18" t="n">
-        <v>-3.195126</v>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE01TY01017</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SBI Cards &amp; Payment Services Ltd</t>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>6.086461</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.106652</v>
+        <v>10.298525</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.086461</v>
+        <v>9.253373</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.106652</v>
+        <v>-10.298525</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-9.253373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE123W01016</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>SBI Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.064005</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.959871</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.064005</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.959871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,52 +1199,99 @@
           <t>quant BFSI Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>10.298525</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9.137124999999999</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.298525</v>
+        <v>8.637841999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>-9.137124999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-8.637841999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>INE062A01020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.771674000000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-9.771674000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>INE918I01026</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>quant BFSI Fund</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.978361</v>
       </c>
-      <c r="F22" t="n">
-        <v>2.141484</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
+        <v>1.028731</v>
+      </c>
+      <c r="H23" t="n">
         <v>-1.978361</v>
       </c>
-      <c r="H22" t="n">
-        <v>-2.141484</v>
+      <c r="I23" t="n">
+        <v>-1.028731</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_BFSI_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.314090999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.685551999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.216153</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.628539</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.09793799999999919</v>
       </c>
     </row>
@@ -530,29 +540,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.767367999999999</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.767367999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>8.767367999999999</v>
       </c>
+      <c r="J3" t="n">
+        <v>8.767367999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.001052</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.774914</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9.748983000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.2261379999999997</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>-1.747931000000001</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.336848</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.471945</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>6.864903</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>7.336848</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.249933</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.340376</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.576282</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.09044299999999961</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-1.326349</v>
       </c>
     </row>
@@ -678,29 +708,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.747081</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.747081</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>5.747081</v>
       </c>
+      <c r="J7" t="n">
+        <v>5.747081</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.264682</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.67717</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>5.264682</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.587512</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.021502</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.448358</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5731440000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>5.021502</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.974659</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.728754</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.245905</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4.974659</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.448754</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.723976</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.912382</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.7247780000000001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1.536372</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.418112</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.749559</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>-0.3314470000000003</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>3.418112</v>
       </c>
     </row>
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.141619</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.141619</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2.141619</v>
       </c>
+      <c r="J13" t="n">
+        <v>2.141619</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,29 +1002,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.489655</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.489655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.489655</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.489655</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.039149</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.836314</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>-2.797165</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.039149</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>6.086461</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>5.459195</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-6.086461</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>-5.459195</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>7.22842</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>8.099463</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-7.22842</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-8.099463</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>3.139423</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-3.139423</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>10.298525</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>9.253373</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-10.298525</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-9.253373</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.959871</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>-2.959871</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>8.637841999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-8.637841999999999</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>9.771674000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-9.771674000000001</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant BFSI Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant BFSI Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.978361</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1.028731</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-1.978361</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-1.028731</v>
       </c>
     </row>
